--- a/config/project/Integrate_120KW_huawei/IntegrateReport.xlsx
+++ b/config/project/Integrate_120KW_huawei/IntegrateReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_huawei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10CD3CF7-475D-4730-B5A6-49B2EF0D4852}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC83969A-A46F-49C2-BDF7-B7E053A2D582}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="522">
   <si>
     <t>检测项目</t>
   </si>
@@ -2390,6 +2390,22 @@
   </si>
   <si>
     <t>time208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调编号录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time214</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2713,7 +2729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2972,8 +2988,245 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2993,15 +3246,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3011,226 +3255,16 @@
     <xf numFmtId="21" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3699,10 +3733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111:I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -3733,27 +3767,27 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="125"/>
+      <c r="B3" s="153"/>
       <c r="C3" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="125"/>
-      <c r="F3" s="122" t="s">
+      <c r="E3" s="153"/>
+      <c r="F3" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="123" t="s">
+      <c r="G3" s="156"/>
+      <c r="H3" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="123"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -3768,50 +3802,50 @@
       <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="125"/>
+      <c r="B5" s="153"/>
       <c r="C5" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="123"/>
+      <c r="E5" s="150"/>
       <c r="F5" s="67" t="s">
         <v>135</v>
       </c>
       <c r="G5" s="63"/>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="124"/>
-      <c r="J5" s="126" t="s">
+      <c r="I5" s="151"/>
+      <c r="J5" s="147" t="s">
         <v>432</v>
       </c>
-      <c r="K5" s="126"/>
+      <c r="K5" s="147"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="125"/>
+      <c r="B6" s="153"/>
       <c r="C6" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="124"/>
+      <c r="E6" s="151"/>
       <c r="F6" s="64" t="s">
         <v>136</v>
       </c>
       <c r="G6" s="64"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
@@ -3827,48 +3861,48 @@
       <c r="K7" s="26"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="125"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="67"/>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="130"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="123" t="s">
+      <c r="E8" s="154"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="123"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="121"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="123" t="s">
+      <c r="E9" s="150"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="22"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -3893,19 +3927,19 @@
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="107" t="s">
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
       <c r="J12" s="37" t="s">
         <v>2</v>
       </c>
@@ -3914,137 +3948,137 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="164" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
       <c r="J13" s="54" t="s">
         <v>95</v>
       </c>
       <c r="K13" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="L13" s="142"/>
+      <c r="L13" s="141"/>
     </row>
     <row r="14" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="116"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="128" t="s">
+      <c r="D14" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
       <c r="J14" s="54" t="s">
         <v>95</v>
       </c>
       <c r="K14" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="L14" s="142"/>
+      <c r="L14" s="141"/>
     </row>
     <row r="15" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="128" t="s">
+      <c r="D15" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
       <c r="J15" s="54" t="s">
         <v>95</v>
       </c>
       <c r="K15" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="L15" s="142"/>
+      <c r="L15" s="141"/>
     </row>
     <row r="16" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="116"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
       <c r="J16" s="54" t="s">
         <v>95</v>
       </c>
       <c r="K16" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="L16" s="142"/>
+      <c r="L16" s="141"/>
     </row>
     <row r="17" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="128" t="s">
+      <c r="D17" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
       <c r="J17" s="54" t="s">
         <v>95</v>
       </c>
       <c r="K17" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="L17" s="142"/>
+      <c r="L17" s="141"/>
     </row>
     <row r="18" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="119" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="118" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="134" t="s">
+      <c r="D18" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
       <c r="J18" s="55" t="s">
         <v>342</v>
       </c>
@@ -4053,19 +4087,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="107"/>
+      <c r="A19" s="120"/>
+      <c r="B19" s="118"/>
       <c r="C19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
       <c r="J19" s="55" t="s">
         <v>344</v>
       </c>
@@ -4075,19 +4109,19 @@
       <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="107"/>
+      <c r="A20" s="120"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
       <c r="J20" s="55" t="s">
         <v>347</v>
       </c>
@@ -4096,21 +4130,21 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="117" t="s">
+      <c r="A21" s="120"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119" t="s">
+      <c r="E21" s="99"/>
+      <c r="F21" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
       <c r="J21" s="55" t="s">
         <v>97</v>
       </c>
@@ -4119,19 +4153,19 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118" t="s">
+      <c r="A22" s="120"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="118"/>
-      <c r="F22" s="119" t="s">
+      <c r="E22" s="99"/>
+      <c r="F22" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
       <c r="J22" s="55" t="s">
         <v>98</v>
       </c>
@@ -4140,19 +4174,19 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="118" t="s">
+      <c r="A23" s="120"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="118"/>
-      <c r="F23" s="119" t="s">
+      <c r="E23" s="99"/>
+      <c r="F23" s="138" t="s">
         <v>238</v>
       </c>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
       <c r="J23" s="55" t="s">
         <v>239</v>
       </c>
@@ -4162,21 +4196,21 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="117" t="s">
+      <c r="A24" s="120"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="118"/>
-      <c r="F24" s="119" t="s">
+      <c r="E24" s="99"/>
+      <c r="F24" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
       <c r="J24" s="55" t="s">
         <v>99</v>
       </c>
@@ -4185,19 +4219,19 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118" t="s">
+      <c r="A25" s="120"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="118"/>
-      <c r="F25" s="119" t="s">
+      <c r="E25" s="99"/>
+      <c r="F25" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
       <c r="J25" s="55" t="s">
         <v>100</v>
       </c>
@@ -4207,19 +4241,19 @@
       <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118" t="s">
+      <c r="A26" s="120"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="119" t="s">
+      <c r="E26" s="99"/>
+      <c r="F26" s="138" t="s">
         <v>238</v>
       </c>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
       <c r="J26" s="55" t="s">
         <v>239</v>
       </c>
@@ -4228,23 +4262,23 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="107" t="s">
+      <c r="A27" s="120"/>
+      <c r="B27" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="117" t="s">
+      <c r="C27" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="119" t="s">
+      <c r="E27" s="99"/>
+      <c r="F27" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
       <c r="J27" s="55" t="s">
         <v>141</v>
       </c>
@@ -4253,19 +4287,19 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118" t="s">
+      <c r="A28" s="120"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="E28" s="118"/>
-      <c r="F28" s="119" t="s">
+      <c r="E28" s="99"/>
+      <c r="F28" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
       <c r="J28" s="55" t="s">
         <v>142</v>
       </c>
@@ -4274,19 +4308,19 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118" t="s">
+      <c r="A29" s="120"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="118"/>
-      <c r="F29" s="119" t="s">
+      <c r="E29" s="99"/>
+      <c r="F29" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
       <c r="J29" s="55" t="s">
         <v>114</v>
       </c>
@@ -4295,19 +4329,19 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="118" t="s">
+      <c r="A30" s="120"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="118"/>
-      <c r="F30" s="119" t="s">
+      <c r="E30" s="99"/>
+      <c r="F30" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
       <c r="J30" s="55" t="s">
         <v>115</v>
       </c>
@@ -4316,19 +4350,19 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="118" t="s">
+      <c r="A31" s="120"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="118"/>
-      <c r="F31" s="119" t="s">
+      <c r="E31" s="99"/>
+      <c r="F31" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
       <c r="J31" s="55" t="s">
         <v>143</v>
       </c>
@@ -4338,19 +4372,19 @@
       <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="118" t="s">
+      <c r="A32" s="120"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="E32" s="118"/>
-      <c r="F32" s="119" t="s">
+      <c r="E32" s="99"/>
+      <c r="F32" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
       <c r="J32" s="55" t="s">
         <v>144</v>
       </c>
@@ -4360,19 +4394,19 @@
       <c r="L32" s="25"/>
     </row>
     <row r="33" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="118" t="s">
+      <c r="A33" s="120"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="118"/>
-      <c r="F33" s="119" t="s">
+      <c r="E33" s="99"/>
+      <c r="F33" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
       <c r="J33" s="55" t="s">
         <v>145</v>
       </c>
@@ -4381,48 +4415,48 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="110"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="117" t="s">
+      <c r="A34" s="120"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="124" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="118" t="s">
+      <c r="D34" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="118"/>
-      <c r="F34" s="119" t="s">
+      <c r="E34" s="99"/>
+      <c r="F34" s="138" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="159" t="s">
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="K34" s="148" t="s">
+      <c r="K34" s="100" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="110"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="118" t="s">
+      <c r="A35" s="120"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="118"/>
-      <c r="F35" s="119" t="s">
+      <c r="E35" s="99"/>
+      <c r="F35" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="159"/>
-      <c r="K35" s="150"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="101"/>
     </row>
     <row r="36" spans="1:12" s="35" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="110"/>
-      <c r="B36" s="100" t="s">
+      <c r="A36" s="120"/>
+      <c r="B36" s="157" t="s">
         <v>379</v>
       </c>
       <c r="C36" s="49" t="s">
@@ -4447,8 +4481,8 @@
       <c r="L36" s="34"/>
     </row>
     <row r="37" spans="1:12" s="35" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="110"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="120"/>
+      <c r="B37" s="157"/>
       <c r="C37" s="49" t="s">
         <v>153</v>
       </c>
@@ -4479,8 +4513,8 @@
       <c r="L37" s="34"/>
     </row>
     <row r="38" spans="1:12" s="35" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="110"/>
-      <c r="B38" s="100"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="157"/>
       <c r="C38" s="49" t="s">
         <v>204</v>
       </c>
@@ -4503,8 +4537,8 @@
       <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:12" s="35" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="110"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="49" t="s">
         <v>153</v>
       </c>
@@ -4535,21 +4569,21 @@
       <c r="L39" s="34"/>
     </row>
     <row r="40" spans="1:12" s="35" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="110"/>
-      <c r="B40" s="108" t="s">
+      <c r="A40" s="120"/>
+      <c r="B40" s="126" t="s">
         <v>166</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="143" t="s">
+      <c r="D40" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
       <c r="J40" s="57" t="s">
         <v>243</v>
       </c>
@@ -4559,149 +4593,149 @@
       <c r="L40" s="34"/>
     </row>
     <row r="41" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="118" t="s">
+      <c r="A41" s="120"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="133" t="s">
+      <c r="D41" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="169" t="s">
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="K41" s="129" t="s">
+      <c r="K41" s="117" t="s">
         <v>298</v>
       </c>
       <c r="L41" s="34"/>
     </row>
     <row r="42" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="110"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
       <c r="G42" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="151" t="s">
+      <c r="H42" s="91" t="s">
         <v>340</v>
       </c>
-      <c r="I42" s="152"/>
-      <c r="J42" s="169"/>
-      <c r="K42" s="129"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="117"/>
       <c r="L42" s="34"/>
     </row>
     <row r="43" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="110"/>
-      <c r="B43" s="107" t="s">
+      <c r="A43" s="120"/>
+      <c r="B43" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="117" t="s">
+      <c r="C43" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="118" t="s">
+      <c r="D43" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="118"/>
+      <c r="E43" s="99"/>
       <c r="F43" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="G43" s="118" t="s">
+      <c r="G43" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="118"/>
+      <c r="H43" s="99"/>
       <c r="I43" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="J43" s="159" t="s">
+      <c r="J43" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="K43" s="147" t="s">
+      <c r="K43" s="102" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="110"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="118" t="s">
+      <c r="A44" s="120"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="118"/>
+      <c r="E44" s="99"/>
       <c r="F44" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="G44" s="118" t="s">
+      <c r="G44" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="118"/>
+      <c r="H44" s="99"/>
       <c r="I44" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="J44" s="159"/>
-      <c r="K44" s="147"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="102"/>
     </row>
     <row r="45" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="110"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="118" t="s">
+      <c r="A45" s="120"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="118"/>
+      <c r="E45" s="99"/>
       <c r="F45" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="118" t="s">
+      <c r="G45" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="118"/>
+      <c r="H45" s="99"/>
       <c r="I45" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="J45" s="159"/>
-      <c r="K45" s="147"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="102"/>
     </row>
     <row r="46" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="110"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="118" t="s">
+      <c r="A46" s="120"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="118"/>
+      <c r="E46" s="99"/>
       <c r="F46" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
       <c r="I46" s="57"/>
-      <c r="J46" s="159"/>
-      <c r="K46" s="147"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="102"/>
     </row>
     <row r="47" spans="1:12" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
-      <c r="B47" s="107" t="s">
+      <c r="A47" s="120"/>
+      <c r="B47" s="118" t="s">
         <v>165</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="133" t="s">
+      <c r="D47" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
       <c r="J47" s="57" t="s">
         <v>244</v>
       </c>
@@ -4711,25 +4745,25 @@
       <c r="L47" s="34"/>
     </row>
     <row r="48" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="110"/>
-      <c r="B48" s="107"/>
+      <c r="A48" s="120"/>
+      <c r="B48" s="118"/>
       <c r="C48" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="144" t="s">
+      <c r="E48" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="F48" s="145"/>
+      <c r="F48" s="115"/>
       <c r="G48" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="144" t="s">
+      <c r="H48" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="I48" s="145"/>
+      <c r="I48" s="115"/>
       <c r="J48" s="55" t="s">
         <v>118</v>
       </c>
@@ -4738,68 +4772,68 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="110"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107" t="s">
+      <c r="A49" s="120"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="118" t="s">
+      <c r="D49" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="118"/>
-      <c r="F49" s="144" t="s">
+      <c r="E49" s="99"/>
+      <c r="F49" s="114" t="s">
         <v>245</v>
       </c>
-      <c r="G49" s="145"/>
+      <c r="G49" s="115"/>
       <c r="H49" s="43" t="s">
         <v>159</v>
       </c>
       <c r="I49" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="J49" s="160" t="s">
+      <c r="J49" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="K49" s="148" t="s">
+      <c r="K49" s="100" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="118" t="s">
+      <c r="A50" s="120"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="118"/>
-      <c r="F50" s="145" t="s">
+      <c r="E50" s="99"/>
+      <c r="F50" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="G50" s="145"/>
+      <c r="G50" s="115"/>
       <c r="H50" s="43" t="s">
         <v>159</v>
       </c>
       <c r="I50" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="J50" s="161"/>
-      <c r="K50" s="150"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="101"/>
       <c r="L50" s="33"/>
     </row>
     <row r="51" spans="1:12" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="110"/>
-      <c r="B51" s="107"/>
+      <c r="A51" s="120"/>
+      <c r="B51" s="118"/>
       <c r="C51" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="133" t="s">
+      <c r="D51" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
       <c r="J51" s="57" t="s">
         <v>247</v>
       </c>
@@ -4809,24 +4843,24 @@
       <c r="L51" s="34"/>
     </row>
     <row r="52" spans="1:12" s="35" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="110"/>
+      <c r="A52" s="120"/>
       <c r="B52" s="79" t="s">
         <v>435</v>
       </c>
       <c r="C52" s="79" t="s">
         <v>436</v>
       </c>
-      <c r="D52" s="170" t="s">
+      <c r="D52" s="89" t="s">
         <v>437</v>
       </c>
-      <c r="E52" s="171"/>
+      <c r="E52" s="90"/>
       <c r="F52" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="G52" s="170" t="s">
+      <c r="G52" s="89" t="s">
         <v>439</v>
       </c>
-      <c r="H52" s="171"/>
+      <c r="H52" s="90"/>
       <c r="I52" s="70" t="s">
         <v>440</v>
       </c>
@@ -4839,24 +4873,24 @@
       <c r="L52" s="34"/>
     </row>
     <row r="53" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="110"/>
-      <c r="B53" s="107" t="s">
+      <c r="A53" s="120"/>
+      <c r="B53" s="118" t="s">
         <v>177</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="D53" s="146" t="s">
+      <c r="D53" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="146"/>
+      <c r="E53" s="106"/>
       <c r="F53" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="146" t="s">
+      <c r="G53" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="146"/>
+      <c r="H53" s="106"/>
       <c r="I53" s="70" t="s">
         <v>175</v>
       </c>
@@ -4869,22 +4903,22 @@
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="110"/>
-      <c r="B54" s="107"/>
+      <c r="A54" s="120"/>
+      <c r="B54" s="118"/>
       <c r="C54" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="146" t="s">
+      <c r="D54" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="146"/>
+      <c r="E54" s="106"/>
       <c r="F54" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="G54" s="146" t="s">
+      <c r="G54" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="H54" s="146"/>
+      <c r="H54" s="106"/>
       <c r="I54" s="70" t="s">
         <v>176</v>
       </c>
@@ -4896,24 +4930,24 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="110"/>
-      <c r="B55" s="107" t="s">
+      <c r="A55" s="120"/>
+      <c r="B55" s="118" t="s">
         <v>178</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="118" t="s">
+      <c r="D55" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="118"/>
+      <c r="E55" s="99"/>
       <c r="F55" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="G55" s="118" t="s">
+      <c r="G55" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="118"/>
+      <c r="H55" s="99"/>
       <c r="I55" s="58" t="s">
         <v>120</v>
       </c>
@@ -4925,246 +4959,246 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="117" t="s">
+      <c r="A56" s="120"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="133" t="s">
+      <c r="D56" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="105" t="s">
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="K56" s="147" t="s">
+      <c r="K56" s="102" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="111"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="114" t="s">
+      <c r="A57" s="121"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="147"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="163"/>
+      <c r="K57" s="102"/>
     </row>
     <row r="58" spans="1:12" s="35" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="108" t="s">
+      <c r="C58" s="126" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="143" t="s">
+      <c r="D58" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="E58" s="143"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="103" t="s">
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="K58" s="167" t="s">
+      <c r="K58" s="112" t="s">
         <v>308</v>
       </c>
       <c r="L58" s="34"/>
     </row>
     <row r="59" spans="1:12" s="35" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="100"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="143" t="s">
+      <c r="A59" s="157"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="143"/>
-      <c r="F59" s="143"/>
-      <c r="G59" s="143"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="104"/>
-      <c r="K59" s="168"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="161"/>
+      <c r="K59" s="113"/>
       <c r="L59" s="34"/>
     </row>
     <row r="60" spans="1:12" s="35" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="100"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="158" t="s">
+      <c r="A60" s="157"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="143" t="s">
+      <c r="D60" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="E60" s="143"/>
-      <c r="F60" s="143"/>
-      <c r="G60" s="143"/>
-      <c r="H60" s="143"/>
-      <c r="I60" s="143"/>
-      <c r="J60" s="164" t="s">
+      <c r="E60" s="111"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="108" t="s">
         <v>333</v>
       </c>
-      <c r="K60" s="148" t="s">
+      <c r="K60" s="100" t="s">
         <v>309</v>
       </c>
       <c r="L60" s="34"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="100"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="114" t="s">
+      <c r="A61" s="157"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="E61" s="114"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="149"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="140"/>
     </row>
     <row r="62" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="100"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="158"/>
-      <c r="D62" s="118" t="s">
+      <c r="A62" s="157"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="118"/>
+      <c r="E62" s="99"/>
       <c r="F62" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="G62" s="118" t="s">
+      <c r="G62" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="118"/>
+      <c r="H62" s="99"/>
       <c r="I62" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="J62" s="165"/>
-      <c r="K62" s="149"/>
+      <c r="J62" s="109"/>
+      <c r="K62" s="140"/>
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="100"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="158"/>
-      <c r="D63" s="133" t="s">
+      <c r="A63" s="157"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="E63" s="133"/>
-      <c r="F63" s="133"/>
-      <c r="G63" s="133"/>
-      <c r="H63" s="133"/>
-      <c r="I63" s="133"/>
-      <c r="J63" s="165"/>
-      <c r="K63" s="149"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103"/>
+      <c r="I63" s="103"/>
+      <c r="J63" s="109"/>
+      <c r="K63" s="140"/>
     </row>
     <row r="64" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="100"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="118" t="s">
+      <c r="A64" s="157"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="118"/>
+      <c r="E64" s="99"/>
       <c r="F64" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="G64" s="118" t="s">
+      <c r="G64" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="H64" s="118"/>
+      <c r="H64" s="99"/>
       <c r="I64" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="J64" s="165"/>
-      <c r="K64" s="149"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="140"/>
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="100"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="158"/>
-      <c r="D65" s="133" t="s">
+      <c r="A65" s="157"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="133"/>
-      <c r="F65" s="133"/>
-      <c r="G65" s="133"/>
-      <c r="H65" s="133"/>
-      <c r="I65" s="133"/>
-      <c r="J65" s="165"/>
-      <c r="K65" s="149"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="140"/>
     </row>
     <row r="66" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="100"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="158"/>
-      <c r="D66" s="118" t="s">
+      <c r="A66" s="157"/>
+      <c r="B66" s="118"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="118"/>
+      <c r="E66" s="99"/>
       <c r="F66" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="G66" s="118" t="s">
+      <c r="G66" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="H66" s="118"/>
+      <c r="H66" s="99"/>
       <c r="I66" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="J66" s="165"/>
-      <c r="K66" s="149"/>
+      <c r="J66" s="109"/>
+      <c r="K66" s="140"/>
       <c r="L66" s="24"/>
     </row>
     <row r="67" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="100"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="158"/>
-      <c r="D67" s="133" t="s">
+      <c r="A67" s="157"/>
+      <c r="B67" s="118"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="133"/>
-      <c r="F67" s="133"/>
-      <c r="G67" s="133"/>
-      <c r="H67" s="133"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="166"/>
-      <c r="K67" s="150"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="103"/>
+      <c r="I67" s="103"/>
+      <c r="J67" s="110"/>
+      <c r="K67" s="101"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="100"/>
-      <c r="B68" s="107"/>
+      <c r="A68" s="157"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="146" t="s">
+      <c r="D68" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="146"/>
-      <c r="F68" s="146"/>
-      <c r="G68" s="118" t="s">
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="118"/>
+      <c r="H68" s="99"/>
       <c r="I68" s="58" t="s">
         <v>258</v>
       </c>
@@ -5177,19 +5211,19 @@
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="100"/>
-      <c r="B69" s="107"/>
+      <c r="A69" s="157"/>
+      <c r="B69" s="118"/>
       <c r="C69" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="156" t="s">
+      <c r="D69" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="E69" s="157"/>
-      <c r="F69" s="157"/>
-      <c r="G69" s="157"/>
-      <c r="H69" s="157"/>
-      <c r="I69" s="157"/>
+      <c r="E69" s="136"/>
+      <c r="F69" s="136"/>
+      <c r="G69" s="136"/>
+      <c r="H69" s="136"/>
+      <c r="I69" s="136"/>
       <c r="J69" s="77" t="s">
         <v>443</v>
       </c>
@@ -5198,19 +5232,19 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="100"/>
-      <c r="B70" s="107"/>
+      <c r="A70" s="157"/>
+      <c r="B70" s="118"/>
       <c r="C70" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="153" t="s">
+      <c r="D70" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="E70" s="154"/>
-      <c r="F70" s="154"/>
-      <c r="G70" s="154"/>
-      <c r="H70" s="154"/>
-      <c r="I70" s="155"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="133"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="134"/>
       <c r="J70" s="55" t="s">
         <v>137</v>
       </c>
@@ -5220,24 +5254,24 @@
       <c r="L70" s="33"/>
     </row>
     <row r="71" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="100"/>
-      <c r="B71" s="109" t="s">
+      <c r="A71" s="157"/>
+      <c r="B71" s="119" t="s">
         <v>191</v>
       </c>
       <c r="C71" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="118" t="s">
+      <c r="D71" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E71" s="118"/>
+      <c r="E71" s="99"/>
       <c r="F71" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="G71" s="118" t="s">
+      <c r="G71" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="H71" s="118"/>
+      <c r="H71" s="99"/>
       <c r="I71" s="58" t="s">
         <v>261</v>
       </c>
@@ -5249,243 +5283,243 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="100"/>
-      <c r="B72" s="110"/>
-      <c r="C72" s="117" t="s">
+      <c r="A72" s="157"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="D72" s="133" t="s">
+      <c r="D72" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="E72" s="133"/>
-      <c r="F72" s="133"/>
-      <c r="G72" s="133"/>
-      <c r="H72" s="133"/>
-      <c r="I72" s="133"/>
-      <c r="J72" s="105" t="s">
+      <c r="E72" s="103"/>
+      <c r="F72" s="103"/>
+      <c r="G72" s="103"/>
+      <c r="H72" s="103"/>
+      <c r="I72" s="103"/>
+      <c r="J72" s="162" t="s">
         <v>185</v>
       </c>
-      <c r="K72" s="147" t="s">
+      <c r="K72" s="102" t="s">
         <v>313</v>
       </c>
       <c r="L72" s="33"/>
     </row>
     <row r="73" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="100"/>
-      <c r="B73" s="110"/>
-      <c r="C73" s="117"/>
-      <c r="D73" s="114" t="s">
+      <c r="A73" s="157"/>
+      <c r="B73" s="120"/>
+      <c r="C73" s="124"/>
+      <c r="D73" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="E73" s="114"/>
-      <c r="F73" s="114"/>
-      <c r="G73" s="114"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="114"/>
-      <c r="J73" s="106"/>
-      <c r="K73" s="147"/>
+      <c r="E73" s="125"/>
+      <c r="F73" s="125"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="125"/>
+      <c r="I73" s="125"/>
+      <c r="J73" s="163"/>
+      <c r="K73" s="102"/>
       <c r="L73" s="33"/>
     </row>
     <row r="74" spans="1:12" s="35" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="100"/>
-      <c r="B74" s="110"/>
-      <c r="C74" s="108" t="s">
+      <c r="A74" s="157"/>
+      <c r="B74" s="120"/>
+      <c r="C74" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="143" t="s">
+      <c r="D74" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="E74" s="143"/>
-      <c r="F74" s="143"/>
-      <c r="G74" s="143"/>
-      <c r="H74" s="143"/>
-      <c r="I74" s="143"/>
-      <c r="J74" s="103" t="s">
+      <c r="E74" s="111"/>
+      <c r="F74" s="111"/>
+      <c r="G74" s="111"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="111"/>
+      <c r="J74" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="K74" s="167" t="s">
+      <c r="K74" s="112" t="s">
         <v>314</v>
       </c>
       <c r="L74" s="34"/>
     </row>
     <row r="75" spans="1:12" s="35" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="100"/>
-      <c r="B75" s="110"/>
-      <c r="C75" s="108"/>
-      <c r="D75" s="143" t="s">
+      <c r="A75" s="157"/>
+      <c r="B75" s="120"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="143"/>
-      <c r="F75" s="143"/>
-      <c r="G75" s="143"/>
-      <c r="H75" s="143"/>
-      <c r="I75" s="143"/>
-      <c r="J75" s="104"/>
-      <c r="K75" s="168"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="111"/>
+      <c r="G75" s="111"/>
+      <c r="H75" s="111"/>
+      <c r="I75" s="111"/>
+      <c r="J75" s="161"/>
+      <c r="K75" s="113"/>
       <c r="L75" s="34"/>
     </row>
     <row r="76" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="100"/>
-      <c r="B76" s="110"/>
-      <c r="C76" s="117" t="s">
+      <c r="A76" s="157"/>
+      <c r="B76" s="120"/>
+      <c r="C76" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="D76" s="143" t="s">
+      <c r="D76" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="E76" s="143"/>
-      <c r="F76" s="143"/>
-      <c r="G76" s="143"/>
-      <c r="H76" s="143"/>
-      <c r="I76" s="143"/>
-      <c r="J76" s="160" t="s">
+      <c r="E76" s="111"/>
+      <c r="F76" s="111"/>
+      <c r="G76" s="111"/>
+      <c r="H76" s="111"/>
+      <c r="I76" s="111"/>
+      <c r="J76" s="97" t="s">
         <v>332</v>
       </c>
-      <c r="K76" s="148" t="s">
+      <c r="K76" s="100" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="100"/>
-      <c r="B77" s="110"/>
-      <c r="C77" s="117"/>
-      <c r="D77" s="133" t="s">
+      <c r="A77" s="157"/>
+      <c r="B77" s="120"/>
+      <c r="C77" s="124"/>
+      <c r="D77" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="E77" s="133"/>
-      <c r="F77" s="133"/>
-      <c r="G77" s="133"/>
-      <c r="H77" s="133"/>
-      <c r="I77" s="133"/>
-      <c r="J77" s="162"/>
-      <c r="K77" s="149"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="103"/>
+      <c r="I77" s="103"/>
+      <c r="J77" s="104"/>
+      <c r="K77" s="140"/>
     </row>
     <row r="78" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="100"/>
-      <c r="B78" s="110"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="118" t="s">
+      <c r="A78" s="157"/>
+      <c r="B78" s="120"/>
+      <c r="C78" s="124"/>
+      <c r="D78" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="118"/>
+      <c r="E78" s="99"/>
       <c r="F78" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="G78" s="118" t="s">
+      <c r="G78" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="118"/>
+      <c r="H78" s="99"/>
       <c r="I78" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="J78" s="162"/>
-      <c r="K78" s="149"/>
+      <c r="J78" s="104"/>
+      <c r="K78" s="140"/>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="100"/>
-      <c r="B79" s="110"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="133" t="s">
+      <c r="A79" s="157"/>
+      <c r="B79" s="120"/>
+      <c r="C79" s="124"/>
+      <c r="D79" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="E79" s="133"/>
-      <c r="F79" s="133"/>
-      <c r="G79" s="133"/>
-      <c r="H79" s="133"/>
-      <c r="I79" s="133"/>
-      <c r="J79" s="162"/>
-      <c r="K79" s="149"/>
+      <c r="E79" s="103"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="103"/>
+      <c r="J79" s="104"/>
+      <c r="K79" s="140"/>
     </row>
     <row r="80" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="100"/>
-      <c r="B80" s="110"/>
-      <c r="C80" s="117"/>
-      <c r="D80" s="118" t="s">
+      <c r="A80" s="157"/>
+      <c r="B80" s="120"/>
+      <c r="C80" s="124"/>
+      <c r="D80" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="118"/>
+      <c r="E80" s="99"/>
       <c r="F80" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="G80" s="118" t="s">
+      <c r="G80" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="118"/>
+      <c r="H80" s="99"/>
       <c r="I80" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="J80" s="162"/>
-      <c r="K80" s="149"/>
+      <c r="J80" s="104"/>
+      <c r="K80" s="140"/>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="100"/>
-      <c r="B81" s="110"/>
-      <c r="C81" s="117"/>
-      <c r="D81" s="133" t="s">
+      <c r="A81" s="157"/>
+      <c r="B81" s="120"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="133"/>
-      <c r="F81" s="133"/>
-      <c r="G81" s="133"/>
-      <c r="H81" s="133"/>
-      <c r="I81" s="133"/>
-      <c r="J81" s="162"/>
-      <c r="K81" s="149"/>
+      <c r="E81" s="103"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
+      <c r="H81" s="103"/>
+      <c r="I81" s="103"/>
+      <c r="J81" s="104"/>
+      <c r="K81" s="140"/>
     </row>
     <row r="82" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="100"/>
-      <c r="B82" s="110"/>
-      <c r="C82" s="117"/>
-      <c r="D82" s="118" t="s">
+      <c r="A82" s="157"/>
+      <c r="B82" s="120"/>
+      <c r="C82" s="124"/>
+      <c r="D82" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="E82" s="118"/>
+      <c r="E82" s="99"/>
       <c r="F82" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="G82" s="118" t="s">
+      <c r="G82" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="H82" s="118"/>
+      <c r="H82" s="99"/>
       <c r="I82" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="J82" s="162"/>
-      <c r="K82" s="149"/>
+      <c r="J82" s="104"/>
+      <c r="K82" s="140"/>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="100"/>
-      <c r="B83" s="110"/>
-      <c r="C83" s="117"/>
-      <c r="D83" s="133" t="s">
+      <c r="A83" s="157"/>
+      <c r="B83" s="120"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="E83" s="133"/>
-      <c r="F83" s="133"/>
-      <c r="G83" s="133"/>
-      <c r="H83" s="133"/>
-      <c r="I83" s="133"/>
-      <c r="J83" s="163"/>
-      <c r="K83" s="150"/>
+      <c r="E83" s="103"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="103"/>
+      <c r="H83" s="103"/>
+      <c r="I83" s="103"/>
+      <c r="J83" s="105"/>
+      <c r="K83" s="101"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="100"/>
-      <c r="B84" s="110"/>
+      <c r="A84" s="157"/>
+      <c r="B84" s="120"/>
       <c r="C84" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="146" t="s">
+      <c r="D84" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="E84" s="146"/>
-      <c r="F84" s="146"/>
-      <c r="G84" s="118" t="s">
+      <c r="E84" s="106"/>
+      <c r="F84" s="106"/>
+      <c r="G84" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="H84" s="118"/>
+      <c r="H84" s="99"/>
       <c r="I84" s="58" t="s">
         <v>265</v>
       </c>
@@ -5498,19 +5532,19 @@
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="100"/>
-      <c r="B85" s="110"/>
+      <c r="A85" s="157"/>
+      <c r="B85" s="120"/>
       <c r="C85" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="136" t="s">
+      <c r="D85" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="E85" s="137"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="137"/>
-      <c r="I85" s="137"/>
+      <c r="E85" s="145"/>
+      <c r="F85" s="145"/>
+      <c r="G85" s="145"/>
+      <c r="H85" s="145"/>
+      <c r="I85" s="145"/>
       <c r="J85" s="55" t="s">
         <v>383</v>
       </c>
@@ -5520,19 +5554,19 @@
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="100"/>
-      <c r="B86" s="110"/>
+      <c r="A86" s="157"/>
+      <c r="B86" s="120"/>
       <c r="C86" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="D86" s="112" t="s">
+      <c r="D86" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="E86" s="115"/>
-      <c r="F86" s="115"/>
-      <c r="G86" s="115"/>
-      <c r="H86" s="115"/>
-      <c r="I86" s="113"/>
+      <c r="E86" s="128"/>
+      <c r="F86" s="128"/>
+      <c r="G86" s="128"/>
+      <c r="H86" s="128"/>
+      <c r="I86" s="129"/>
       <c r="J86" s="55" t="s">
         <v>127</v>
       </c>
@@ -5542,67 +5576,67 @@
       <c r="L86" s="33"/>
     </row>
     <row r="87" spans="1:12" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="100"/>
-      <c r="B87" s="110"/>
+      <c r="A87" s="157"/>
+      <c r="B87" s="120"/>
       <c r="C87" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="133" t="s">
+      <c r="D87" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="E87" s="138"/>
-      <c r="F87" s="138"/>
-      <c r="G87" s="138"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
       <c r="H87" s="46" t="s">
         <v>88</v>
       </c>
       <c r="I87" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="J87" s="169" t="s">
+      <c r="J87" s="116" t="s">
         <v>267</v>
       </c>
-      <c r="K87" s="129" t="s">
+      <c r="K87" s="117" t="s">
         <v>318</v>
       </c>
       <c r="L87" s="36"/>
     </row>
     <row r="88" spans="1:12" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="100"/>
-      <c r="B88" s="111"/>
+      <c r="A88" s="157"/>
+      <c r="B88" s="121"/>
       <c r="C88" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D88" s="133" t="s">
+      <c r="D88" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="E88" s="138"/>
-      <c r="F88" s="138"/>
-      <c r="G88" s="138"/>
+      <c r="E88" s="107"/>
+      <c r="F88" s="107"/>
+      <c r="G88" s="107"/>
       <c r="H88" s="46" t="s">
         <v>159</v>
       </c>
       <c r="I88" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="J88" s="169"/>
-      <c r="K88" s="129"/>
+      <c r="J88" s="116"/>
+      <c r="K88" s="117"/>
       <c r="L88" s="36"/>
     </row>
     <row r="89" spans="1:12" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="100"/>
-      <c r="B89" s="109" t="s">
+      <c r="A89" s="157"/>
+      <c r="B89" s="119" t="s">
         <v>236</v>
       </c>
       <c r="C89" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="D89" s="151" t="s">
+      <c r="D89" s="91" t="s">
         <v>382</v>
       </c>
-      <c r="E89" s="172"/>
-      <c r="F89" s="172"/>
-      <c r="G89" s="172"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="92"/>
       <c r="H89" s="74" t="s">
         <v>381</v>
       </c>
@@ -5618,20 +5652,20 @@
       <c r="L89" s="36"/>
     </row>
     <row r="90" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="100"/>
-      <c r="B90" s="110"/>
+      <c r="A90" s="157"/>
+      <c r="B90" s="120"/>
       <c r="C90" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="D90" s="112" t="s">
+      <c r="D90" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="E90" s="115"/>
-      <c r="F90" s="113"/>
-      <c r="G90" s="112" t="s">
+      <c r="E90" s="128"/>
+      <c r="F90" s="129"/>
+      <c r="G90" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="H90" s="113"/>
+      <c r="H90" s="129"/>
       <c r="I90" s="61" t="s">
         <v>355</v>
       </c>
@@ -5644,20 +5678,20 @@
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="100"/>
-      <c r="B91" s="110"/>
+      <c r="A91" s="157"/>
+      <c r="B91" s="120"/>
       <c r="C91" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D91" s="112" t="s">
+      <c r="D91" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="E91" s="115"/>
-      <c r="F91" s="113"/>
-      <c r="G91" s="112" t="s">
+      <c r="E91" s="128"/>
+      <c r="F91" s="129"/>
+      <c r="G91" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="H91" s="113"/>
+      <c r="H91" s="129"/>
       <c r="I91" s="61" t="s">
         <v>356</v>
       </c>
@@ -5670,20 +5704,20 @@
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="1:12" s="40" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="100"/>
-      <c r="B92" s="110"/>
+      <c r="A92" s="157"/>
+      <c r="B92" s="120"/>
       <c r="C92" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="D92" s="112" t="s">
+      <c r="D92" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="E92" s="115"/>
-      <c r="F92" s="113"/>
-      <c r="G92" s="139" t="s">
+      <c r="E92" s="128"/>
+      <c r="F92" s="129"/>
+      <c r="G92" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="H92" s="140"/>
+      <c r="H92" s="131"/>
       <c r="I92" s="61" t="s">
         <v>357</v>
       </c>
@@ -5696,20 +5730,20 @@
       <c r="L92" s="39"/>
     </row>
     <row r="93" spans="1:12" s="40" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="100"/>
-      <c r="B93" s="110"/>
+      <c r="A93" s="157"/>
+      <c r="B93" s="120"/>
       <c r="C93" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="D93" s="112" t="s">
+      <c r="D93" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="E93" s="115"/>
-      <c r="F93" s="113"/>
-      <c r="G93" s="139" t="s">
+      <c r="E93" s="128"/>
+      <c r="F93" s="129"/>
+      <c r="G93" s="130" t="s">
         <v>352</v>
       </c>
-      <c r="H93" s="140"/>
+      <c r="H93" s="131"/>
       <c r="I93" s="61" t="s">
         <v>358</v>
       </c>
@@ -5722,20 +5756,20 @@
       <c r="L93" s="39"/>
     </row>
     <row r="94" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="100"/>
-      <c r="B94" s="110"/>
+      <c r="A94" s="157"/>
+      <c r="B94" s="120"/>
       <c r="C94" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="D94" s="112" t="s">
+      <c r="D94" s="127" t="s">
         <v>351</v>
       </c>
-      <c r="E94" s="115"/>
-      <c r="F94" s="113"/>
-      <c r="G94" s="139" t="s">
+      <c r="E94" s="128"/>
+      <c r="F94" s="129"/>
+      <c r="G94" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="H94" s="140"/>
+      <c r="H94" s="131"/>
       <c r="I94" s="61" t="s">
         <v>359</v>
       </c>
@@ -5748,20 +5782,20 @@
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="100"/>
-      <c r="B95" s="110"/>
+      <c r="A95" s="157"/>
+      <c r="B95" s="120"/>
       <c r="C95" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="D95" s="112" t="s">
+      <c r="D95" s="127" t="s">
         <v>351</v>
       </c>
-      <c r="E95" s="115"/>
-      <c r="F95" s="113"/>
-      <c r="G95" s="139" t="s">
+      <c r="E95" s="128"/>
+      <c r="F95" s="129"/>
+      <c r="G95" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="H95" s="140"/>
+      <c r="H95" s="131"/>
       <c r="I95" s="61" t="s">
         <v>360</v>
       </c>
@@ -5774,20 +5808,20 @@
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="100"/>
-      <c r="B96" s="110"/>
+      <c r="A96" s="157"/>
+      <c r="B96" s="120"/>
       <c r="C96" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="D96" s="112" t="s">
+      <c r="D96" s="127" t="s">
         <v>351</v>
       </c>
-      <c r="E96" s="115"/>
-      <c r="F96" s="113"/>
-      <c r="G96" s="139" t="s">
+      <c r="E96" s="128"/>
+      <c r="F96" s="129"/>
+      <c r="G96" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="H96" s="140"/>
+      <c r="H96" s="131"/>
       <c r="I96" s="61" t="s">
         <v>361</v>
       </c>
@@ -5800,20 +5834,20 @@
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="100"/>
-      <c r="B97" s="110"/>
+      <c r="A97" s="157"/>
+      <c r="B97" s="120"/>
       <c r="C97" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="D97" s="112" t="s">
+      <c r="D97" s="127" t="s">
         <v>351</v>
       </c>
-      <c r="E97" s="115"/>
-      <c r="F97" s="113"/>
-      <c r="G97" s="139" t="s">
+      <c r="E97" s="128"/>
+      <c r="F97" s="129"/>
+      <c r="G97" s="130" t="s">
         <v>354</v>
       </c>
-      <c r="H97" s="140"/>
+      <c r="H97" s="131"/>
       <c r="I97" s="61" t="s">
         <v>362</v>
       </c>
@@ -5826,22 +5860,22 @@
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="100"/>
-      <c r="B98" s="110"/>
+      <c r="A98" s="157"/>
+      <c r="B98" s="120"/>
       <c r="C98" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="D98" s="112" t="s">
+      <c r="D98" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="E98" s="113"/>
+      <c r="E98" s="129"/>
       <c r="F98" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="G98" s="112" t="s">
+      <c r="G98" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="H98" s="113"/>
+      <c r="H98" s="129"/>
       <c r="I98" s="61" t="s">
         <v>248</v>
       </c>
@@ -5854,22 +5888,22 @@
       <c r="L98" s="9"/>
     </row>
     <row r="99" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="100"/>
-      <c r="B99" s="110"/>
+      <c r="A99" s="157"/>
+      <c r="B99" s="120"/>
       <c r="C99" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="D99" s="112" t="s">
+      <c r="D99" s="127" t="s">
         <v>226</v>
       </c>
-      <c r="E99" s="113"/>
+      <c r="E99" s="129"/>
       <c r="F99" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="G99" s="112" t="s">
+      <c r="G99" s="127" t="s">
         <v>227</v>
       </c>
-      <c r="H99" s="113"/>
+      <c r="H99" s="129"/>
       <c r="I99" s="61" t="s">
         <v>249</v>
       </c>
@@ -5882,18 +5916,18 @@
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="100"/>
-      <c r="B100" s="111"/>
+      <c r="A100" s="157"/>
+      <c r="B100" s="121"/>
       <c r="C100" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="D100" s="112" t="s">
+      <c r="D100" s="127" t="s">
         <v>228</v>
       </c>
-      <c r="E100" s="115"/>
-      <c r="F100" s="115"/>
-      <c r="G100" s="115"/>
-      <c r="H100" s="113"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="128"/>
+      <c r="H100" s="129"/>
       <c r="I100" s="61" t="s">
         <v>251</v>
       </c>
@@ -5906,23 +5940,23 @@
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="100" t="s">
+      <c r="A101" s="157" t="s">
         <v>231</v>
       </c>
-      <c r="B101" s="109" t="s">
+      <c r="B101" s="119" t="s">
         <v>203</v>
       </c>
       <c r="C101" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D101" s="134" t="s">
+      <c r="D101" s="122" t="s">
         <v>268</v>
       </c>
-      <c r="E101" s="114"/>
-      <c r="F101" s="114"/>
-      <c r="G101" s="114"/>
-      <c r="H101" s="114"/>
-      <c r="I101" s="114"/>
+      <c r="E101" s="125"/>
+      <c r="F101" s="125"/>
+      <c r="G101" s="125"/>
+      <c r="H101" s="125"/>
+      <c r="I101" s="125"/>
       <c r="J101" s="55" t="s">
         <v>334</v>
       </c>
@@ -5932,19 +5966,19 @@
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="100"/>
-      <c r="B102" s="110"/>
+      <c r="A102" s="157"/>
+      <c r="B102" s="120"/>
       <c r="C102" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D102" s="134" t="s">
+      <c r="D102" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="E102" s="135"/>
-      <c r="F102" s="135"/>
-      <c r="G102" s="135"/>
-      <c r="H102" s="135"/>
-      <c r="I102" s="135"/>
+      <c r="E102" s="123"/>
+      <c r="F102" s="123"/>
+      <c r="G102" s="123"/>
+      <c r="H102" s="123"/>
+      <c r="I102" s="123"/>
       <c r="J102" s="55" t="s">
         <v>124</v>
       </c>
@@ -5954,19 +5988,19 @@
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="100"/>
-      <c r="B103" s="110"/>
+      <c r="A103" s="157"/>
+      <c r="B103" s="120"/>
       <c r="C103" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D103" s="134" t="s">
+      <c r="D103" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="E103" s="135"/>
-      <c r="F103" s="135"/>
-      <c r="G103" s="135"/>
-      <c r="H103" s="135"/>
-      <c r="I103" s="135"/>
+      <c r="E103" s="123"/>
+      <c r="F103" s="123"/>
+      <c r="G103" s="123"/>
+      <c r="H103" s="123"/>
+      <c r="I103" s="123"/>
       <c r="J103" s="55" t="s">
         <v>125</v>
       </c>
@@ -5976,19 +6010,19 @@
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="100"/>
-      <c r="B104" s="110"/>
+      <c r="A104" s="157"/>
+      <c r="B104" s="120"/>
       <c r="C104" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D104" s="134" t="s">
+      <c r="D104" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="E104" s="135"/>
-      <c r="F104" s="135"/>
-      <c r="G104" s="135"/>
-      <c r="H104" s="135"/>
-      <c r="I104" s="135"/>
+      <c r="E104" s="123"/>
+      <c r="F104" s="123"/>
+      <c r="G104" s="123"/>
+      <c r="H104" s="123"/>
+      <c r="I104" s="123"/>
       <c r="J104" s="55" t="s">
         <v>126</v>
       </c>
@@ -5998,19 +6032,19 @@
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="100"/>
-      <c r="B105" s="111"/>
+      <c r="A105" s="157"/>
+      <c r="B105" s="121"/>
       <c r="C105" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="D105" s="134" t="s">
+      <c r="D105" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="135"/>
-      <c r="F105" s="135"/>
-      <c r="G105" s="135"/>
-      <c r="H105" s="135"/>
-      <c r="I105" s="135"/>
+      <c r="E105" s="123"/>
+      <c r="F105" s="123"/>
+      <c r="G105" s="123"/>
+      <c r="H105" s="123"/>
+      <c r="I105" s="123"/>
       <c r="J105" s="55" t="s">
         <v>252</v>
       </c>
@@ -6020,21 +6054,21 @@
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="100"/>
-      <c r="B106" s="107" t="s">
+      <c r="A106" s="157"/>
+      <c r="B106" s="118" t="s">
         <v>202</v>
       </c>
       <c r="C106" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="D106" s="114" t="s">
+      <c r="D106" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="E106" s="114"/>
-      <c r="F106" s="114"/>
-      <c r="G106" s="114"/>
-      <c r="H106" s="114"/>
-      <c r="I106" s="114"/>
+      <c r="E106" s="125"/>
+      <c r="F106" s="125"/>
+      <c r="G106" s="125"/>
+      <c r="H106" s="125"/>
+      <c r="I106" s="125"/>
       <c r="J106" s="55" t="s">
         <v>129</v>
       </c>
@@ -6044,23 +6078,23 @@
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="100"/>
-      <c r="B107" s="107"/>
+      <c r="A107" s="157"/>
+      <c r="B107" s="118"/>
       <c r="C107" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D107" s="117" t="s">
+      <c r="D107" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="E107" s="117"/>
-      <c r="F107" s="117"/>
+      <c r="E107" s="124"/>
+      <c r="F107" s="124"/>
       <c r="G107" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="H107" s="141" t="s">
+      <c r="H107" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="I107" s="141"/>
+      <c r="I107" s="146"/>
       <c r="J107" s="55" t="s">
         <v>131</v>
       </c>
@@ -6070,19 +6104,19 @@
       <c r="L107" s="9"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="100"/>
-      <c r="B108" s="107"/>
+      <c r="A108" s="157"/>
+      <c r="B108" s="118"/>
       <c r="C108" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D108" s="114" t="s">
+      <c r="D108" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="E108" s="114"/>
-      <c r="F108" s="114"/>
-      <c r="G108" s="114"/>
-      <c r="H108" s="114"/>
-      <c r="I108" s="114"/>
+      <c r="E108" s="125"/>
+      <c r="F108" s="125"/>
+      <c r="G108" s="125"/>
+      <c r="H108" s="125"/>
+      <c r="I108" s="125"/>
       <c r="J108" s="55" t="s">
         <v>330</v>
       </c>
@@ -6092,19 +6126,19 @@
       <c r="L108" s="53"/>
     </row>
     <row r="109" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="100"/>
-      <c r="B109" s="107"/>
+      <c r="A109" s="157"/>
+      <c r="B109" s="118"/>
       <c r="C109" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D109" s="114" t="s">
+      <c r="D109" s="125" t="s">
         <v>237</v>
       </c>
-      <c r="E109" s="114"/>
-      <c r="F109" s="114"/>
-      <c r="G109" s="114"/>
-      <c r="H109" s="114"/>
-      <c r="I109" s="114"/>
+      <c r="E109" s="125"/>
+      <c r="F109" s="125"/>
+      <c r="G109" s="125"/>
+      <c r="H109" s="125"/>
+      <c r="I109" s="125"/>
       <c r="J109" s="55" t="s">
         <v>128</v>
       </c>
@@ -6114,19 +6148,19 @@
       <c r="L109" s="9"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="101"/>
-      <c r="B110" s="107"/>
+      <c r="A110" s="158"/>
+      <c r="B110" s="118"/>
       <c r="C110" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D110" s="114" t="s">
+      <c r="D110" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="E110" s="114"/>
-      <c r="F110" s="114"/>
-      <c r="G110" s="114"/>
-      <c r="H110" s="114"/>
-      <c r="I110" s="114"/>
+      <c r="E110" s="125"/>
+      <c r="F110" s="125"/>
+      <c r="G110" s="125"/>
+      <c r="H110" s="125"/>
+      <c r="I110" s="125"/>
       <c r="J110" s="55" t="s">
         <v>130</v>
       </c>
@@ -6135,39 +6169,37 @@
       </c>
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="99" t="s">
+    <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="166" t="s">
         <v>400</v>
       </c>
-      <c r="B111" s="99" t="s">
+      <c r="B111" s="86" t="s">
+        <v>518</v>
+      </c>
+      <c r="C111" s="176" t="s">
+        <v>519</v>
+      </c>
+      <c r="D111" s="177"/>
+      <c r="E111" s="177"/>
+      <c r="F111" s="177"/>
+      <c r="G111" s="177"/>
+      <c r="H111" s="177"/>
+      <c r="I111" s="178"/>
+      <c r="J111" s="88" t="s">
+        <v>520</v>
+      </c>
+      <c r="K111" s="87" t="s">
+        <v>521</v>
+      </c>
+      <c r="L111" s="9"/>
+    </row>
+    <row r="112" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="167"/>
+      <c r="B112" s="165" t="s">
         <v>399</v>
       </c>
-      <c r="C111" s="93" t="s">
+      <c r="C112" s="93" t="s">
         <v>385</v>
-      </c>
-      <c r="D111" s="94"/>
-      <c r="E111" s="94"/>
-      <c r="F111" s="94"/>
-      <c r="G111" s="95"/>
-      <c r="H111" s="83" t="s">
-        <v>445</v>
-      </c>
-      <c r="I111" s="75" t="s">
-        <v>446</v>
-      </c>
-      <c r="J111" s="77" t="s">
-        <v>401</v>
-      </c>
-      <c r="K111" s="76" t="s">
-        <v>418</v>
-      </c>
-      <c r="L111" s="9"/>
-    </row>
-    <row r="112" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A112" s="99"/>
-      <c r="B112" s="99"/>
-      <c r="C112" s="93" t="s">
-        <v>386</v>
       </c>
       <c r="D112" s="94"/>
       <c r="E112" s="94"/>
@@ -6177,21 +6209,21 @@
         <v>445</v>
       </c>
       <c r="I112" s="75" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J112" s="77" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K112" s="76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L112" s="9"/>
     </row>
     <row r="113" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A113" s="99"/>
-      <c r="B113" s="99"/>
+      <c r="A113" s="167"/>
+      <c r="B113" s="165"/>
       <c r="C113" s="93" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D113" s="94"/>
       <c r="E113" s="94"/>
@@ -6201,21 +6233,21 @@
         <v>445</v>
       </c>
       <c r="I113" s="75" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J113" s="77" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K113" s="76" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L113" s="9"/>
     </row>
     <row r="114" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A114" s="99"/>
-      <c r="B114" s="99"/>
+      <c r="A114" s="167"/>
+      <c r="B114" s="165"/>
       <c r="C114" s="93" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D114" s="94"/>
       <c r="E114" s="94"/>
@@ -6225,21 +6257,21 @@
         <v>445</v>
       </c>
       <c r="I114" s="75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J114" s="77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K114" s="76" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L114" s="9"/>
     </row>
     <row r="115" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A115" s="99"/>
-      <c r="B115" s="99"/>
+      <c r="A115" s="167"/>
+      <c r="B115" s="165"/>
       <c r="C115" s="93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D115" s="94"/>
       <c r="E115" s="94"/>
@@ -6249,21 +6281,21 @@
         <v>445</v>
       </c>
       <c r="I115" s="75" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J115" s="77" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K115" s="76" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L115" s="9"/>
     </row>
     <row r="116" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A116" s="99"/>
-      <c r="B116" s="99"/>
+      <c r="A116" s="167"/>
+      <c r="B116" s="165"/>
       <c r="C116" s="93" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D116" s="94"/>
       <c r="E116" s="94"/>
@@ -6273,21 +6305,21 @@
         <v>445</v>
       </c>
       <c r="I116" s="75" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J116" s="77" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K116" s="76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A117" s="99"/>
-      <c r="B117" s="99"/>
+      <c r="A117" s="167"/>
+      <c r="B117" s="165"/>
       <c r="C117" s="93" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D117" s="94"/>
       <c r="E117" s="94"/>
@@ -6297,21 +6329,21 @@
         <v>445</v>
       </c>
       <c r="I117" s="75" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J117" s="77" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K117" s="76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L117" s="9"/>
     </row>
     <row r="118" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A118" s="99"/>
-      <c r="B118" s="99"/>
+      <c r="A118" s="167"/>
+      <c r="B118" s="165"/>
       <c r="C118" s="93" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D118" s="94"/>
       <c r="E118" s="94"/>
@@ -6321,21 +6353,21 @@
         <v>445</v>
       </c>
       <c r="I118" s="75" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J118" s="77" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K118" s="76" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L118" s="9"/>
     </row>
     <row r="119" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A119" s="99"/>
-      <c r="B119" s="99"/>
+      <c r="A119" s="167"/>
+      <c r="B119" s="165"/>
       <c r="C119" s="93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D119" s="94"/>
       <c r="E119" s="94"/>
@@ -6345,21 +6377,21 @@
         <v>445</v>
       </c>
       <c r="I119" s="75" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J119" s="77" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K119" s="76" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L119" s="9"/>
     </row>
     <row r="120" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A120" s="99"/>
-      <c r="B120" s="99"/>
+      <c r="A120" s="167"/>
+      <c r="B120" s="165"/>
       <c r="C120" s="93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D120" s="94"/>
       <c r="E120" s="94"/>
@@ -6369,21 +6401,21 @@
         <v>445</v>
       </c>
       <c r="I120" s="75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J120" s="77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K120" s="76" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L120" s="9"/>
     </row>
     <row r="121" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A121" s="99"/>
-      <c r="B121" s="99"/>
+      <c r="A121" s="167"/>
+      <c r="B121" s="165"/>
       <c r="C121" s="93" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D121" s="94"/>
       <c r="E121" s="94"/>
@@ -6393,21 +6425,21 @@
         <v>445</v>
       </c>
       <c r="I121" s="75" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J121" s="77" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K121" s="76" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L121" s="9"/>
     </row>
     <row r="122" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A122" s="99"/>
-      <c r="B122" s="99"/>
+      <c r="A122" s="167"/>
+      <c r="B122" s="165"/>
       <c r="C122" s="93" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D122" s="94"/>
       <c r="E122" s="94"/>
@@ -6417,21 +6449,21 @@
         <v>445</v>
       </c>
       <c r="I122" s="75" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J122" s="77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K122" s="76" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L122" s="9"/>
     </row>
     <row r="123" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A123" s="99"/>
-      <c r="B123" s="99"/>
+      <c r="A123" s="167"/>
+      <c r="B123" s="165"/>
       <c r="C123" s="93" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D123" s="94"/>
       <c r="E123" s="94"/>
@@ -6441,21 +6473,21 @@
         <v>445</v>
       </c>
       <c r="I123" s="75" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J123" s="77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K123" s="76" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L123" s="9"/>
     </row>
     <row r="124" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A124" s="99"/>
-      <c r="B124" s="99"/>
+      <c r="A124" s="167"/>
+      <c r="B124" s="165"/>
       <c r="C124" s="93" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D124" s="94"/>
       <c r="E124" s="94"/>
@@ -6465,25 +6497,21 @@
         <v>445</v>
       </c>
       <c r="I124" s="75" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J124" s="77" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K124" s="76" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L124" s="9"/>
     </row>
     <row r="125" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A125" s="90" t="s">
-        <v>460</v>
-      </c>
-      <c r="B125" s="90" t="s">
-        <v>460</v>
-      </c>
+      <c r="A125" s="168"/>
+      <c r="B125" s="165"/>
       <c r="C125" s="93" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="D125" s="94"/>
       <c r="E125" s="94"/>
@@ -6493,69 +6521,74 @@
         <v>445</v>
       </c>
       <c r="I125" s="75" t="s">
+        <v>459</v>
+      </c>
+      <c r="J125" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="K125" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="L125" s="9"/>
+    </row>
+    <row r="126" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A126" s="169" t="s">
+        <v>460</v>
+      </c>
+      <c r="B126" s="169" t="s">
+        <v>460</v>
+      </c>
+      <c r="C126" s="93" t="s">
+        <v>461</v>
+      </c>
+      <c r="D126" s="94"/>
+      <c r="E126" s="94"/>
+      <c r="F126" s="94"/>
+      <c r="G126" s="95"/>
+      <c r="H126" s="83" t="s">
+        <v>445</v>
+      </c>
+      <c r="I126" s="75" t="s">
         <v>500</v>
       </c>
-      <c r="J125" s="82" t="s">
+      <c r="J126" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="K125" s="84" t="s">
+      <c r="K126" s="84" t="s">
         <v>506</v>
       </c>
-      <c r="L125" s="9"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="91"/>
-      <c r="B126" s="91"/>
-      <c r="C126" s="51" t="s">
+      <c r="L126" s="9"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="170"/>
+      <c r="B127" s="170"/>
+      <c r="C127" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="D126" s="96" t="s">
+      <c r="D127" s="172" t="s">
         <v>382</v>
       </c>
-      <c r="E126" s="97"/>
-      <c r="F126" s="97"/>
-      <c r="G126" s="98"/>
-      <c r="H126" s="85" t="s">
+      <c r="E127" s="173"/>
+      <c r="F127" s="173"/>
+      <c r="G127" s="174"/>
+      <c r="H127" s="85" t="s">
         <v>462</v>
       </c>
-      <c r="I126" s="75" t="s">
+      <c r="I127" s="75" t="s">
         <v>472</v>
       </c>
-      <c r="J126" s="82" t="s">
+      <c r="J127" s="82" t="s">
         <v>475</v>
       </c>
-      <c r="K126" s="84" t="s">
+      <c r="K127" s="84" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A127" s="91"/>
-      <c r="B127" s="91"/>
-      <c r="C127" s="93" t="s">
+    <row r="128" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A128" s="170"/>
+      <c r="B128" s="170"/>
+      <c r="C128" s="93" t="s">
         <v>463</v>
-      </c>
-      <c r="D127" s="94"/>
-      <c r="E127" s="94"/>
-      <c r="F127" s="94"/>
-      <c r="G127" s="95"/>
-      <c r="H127" s="83" t="s">
-        <v>445</v>
-      </c>
-      <c r="I127" s="75" t="s">
-        <v>473</v>
-      </c>
-      <c r="J127" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="K127" s="84" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A128" s="91"/>
-      <c r="B128" s="91"/>
-      <c r="C128" s="93" t="s">
-        <v>464</v>
       </c>
       <c r="D128" s="94"/>
       <c r="E128" s="94"/>
@@ -6565,20 +6598,20 @@
         <v>445</v>
       </c>
       <c r="I128" s="75" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="J128" s="82" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="K128" s="84" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A129" s="91"/>
-      <c r="B129" s="91"/>
+      <c r="A129" s="170"/>
+      <c r="B129" s="170"/>
       <c r="C129" s="93" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D129" s="94"/>
       <c r="E129" s="94"/>
@@ -6588,20 +6621,20 @@
         <v>445</v>
       </c>
       <c r="I129" s="75" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J129" s="82" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K129" s="84" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A130" s="91"/>
-      <c r="B130" s="91"/>
+      <c r="A130" s="170"/>
+      <c r="B130" s="170"/>
       <c r="C130" s="93" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D130" s="94"/>
       <c r="E130" s="94"/>
@@ -6611,20 +6644,20 @@
         <v>445</v>
       </c>
       <c r="I130" s="75" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J130" s="82" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K130" s="84" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A131" s="92"/>
-      <c r="B131" s="92"/>
+      <c r="A131" s="170"/>
+      <c r="B131" s="170"/>
       <c r="C131" s="93" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D131" s="94"/>
       <c r="E131" s="94"/>
@@ -6634,211 +6667,449 @@
         <v>445</v>
       </c>
       <c r="I131" s="75" t="s">
+        <v>503</v>
+      </c>
+      <c r="J131" s="82" t="s">
+        <v>509</v>
+      </c>
+      <c r="K131" s="84" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A132" s="171"/>
+      <c r="B132" s="171"/>
+      <c r="C132" s="93" t="s">
+        <v>467</v>
+      </c>
+      <c r="D132" s="94"/>
+      <c r="E132" s="94"/>
+      <c r="F132" s="94"/>
+      <c r="G132" s="95"/>
+      <c r="H132" s="83" t="s">
+        <v>445</v>
+      </c>
+      <c r="I132" s="75" t="s">
         <v>504</v>
       </c>
-      <c r="J131" s="82" t="s">
+      <c r="J132" s="82" t="s">
         <v>510</v>
       </c>
-      <c r="K131" s="84" t="s">
+      <c r="K132" s="84" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="87" t="s">
+    <row r="133" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="166" t="s">
         <v>482</v>
       </c>
-      <c r="B132" s="87" t="s">
+      <c r="B133" s="166" t="s">
         <v>491</v>
       </c>
-      <c r="C132" s="86" t="s">
+      <c r="C133" s="175" t="s">
         <v>492</v>
       </c>
-      <c r="D132" s="86"/>
-      <c r="E132" s="86"/>
-      <c r="F132" s="86"/>
-      <c r="G132" s="86"/>
-      <c r="H132" s="86"/>
-      <c r="I132" s="86"/>
-      <c r="J132" s="82" t="s">
+      <c r="D133" s="175"/>
+      <c r="E133" s="175"/>
+      <c r="F133" s="175"/>
+      <c r="G133" s="175"/>
+      <c r="H133" s="175"/>
+      <c r="I133" s="175"/>
+      <c r="J133" s="82" t="s">
         <v>483</v>
       </c>
-      <c r="K132" s="76" t="s">
+      <c r="K133" s="76" t="s">
         <v>484</v>
       </c>
-      <c r="L132" s="81"/>
-    </row>
-    <row r="133" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A133" s="88"/>
-      <c r="B133" s="88"/>
-      <c r="C133" s="86" t="s">
+      <c r="L133" s="81"/>
+    </row>
+    <row r="134" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A134" s="167"/>
+      <c r="B134" s="167"/>
+      <c r="C134" s="175" t="s">
         <v>493</v>
       </c>
-      <c r="D133" s="86"/>
-      <c r="E133" s="86"/>
-      <c r="F133" s="86"/>
-      <c r="G133" s="86"/>
-      <c r="H133" s="86"/>
-      <c r="I133" s="86"/>
-      <c r="J133" s="82" t="s">
+      <c r="D134" s="175"/>
+      <c r="E134" s="175"/>
+      <c r="F134" s="175"/>
+      <c r="G134" s="175"/>
+      <c r="H134" s="175"/>
+      <c r="I134" s="175"/>
+      <c r="J134" s="82" t="s">
         <v>485</v>
       </c>
-      <c r="K133" s="76" t="s">
+      <c r="K134" s="76" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A134" s="88"/>
-      <c r="B134" s="88"/>
-      <c r="C134" s="86" t="s">
+    <row r="135" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A135" s="167"/>
+      <c r="B135" s="167"/>
+      <c r="C135" s="175" t="s">
         <v>494</v>
       </c>
-      <c r="D134" s="86"/>
-      <c r="E134" s="86"/>
-      <c r="F134" s="86"/>
-      <c r="G134" s="86"/>
-      <c r="H134" s="86"/>
-      <c r="I134" s="86"/>
-      <c r="J134" s="82" t="s">
+      <c r="D135" s="175"/>
+      <c r="E135" s="175"/>
+      <c r="F135" s="175"/>
+      <c r="G135" s="175"/>
+      <c r="H135" s="175"/>
+      <c r="I135" s="175"/>
+      <c r="J135" s="82" t="s">
         <v>487</v>
       </c>
-      <c r="K134" s="76" t="s">
+      <c r="K135" s="76" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A135" s="88"/>
-      <c r="B135" s="88"/>
-      <c r="C135" s="86" t="s">
+    <row r="136" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A136" s="167"/>
+      <c r="B136" s="167"/>
+      <c r="C136" s="175" t="s">
         <v>495</v>
       </c>
-      <c r="D135" s="86"/>
-      <c r="E135" s="86"/>
-      <c r="F135" s="86"/>
-      <c r="G135" s="86"/>
-      <c r="H135" s="86"/>
-      <c r="I135" s="86"/>
-      <c r="J135" s="82" t="s">
+      <c r="D136" s="175"/>
+      <c r="E136" s="175"/>
+      <c r="F136" s="175"/>
+      <c r="G136" s="175"/>
+      <c r="H136" s="175"/>
+      <c r="I136" s="175"/>
+      <c r="J136" s="82" t="s">
         <v>489</v>
       </c>
-      <c r="K135" s="76" t="s">
+      <c r="K136" s="76" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="88"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="86" t="s">
+    <row r="137" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="167"/>
+      <c r="B137" s="167"/>
+      <c r="C137" s="175" t="s">
         <v>496</v>
       </c>
-      <c r="D136" s="86"/>
-      <c r="E136" s="86"/>
-      <c r="F136" s="86"/>
-      <c r="G136" s="86"/>
-      <c r="H136" s="86"/>
-      <c r="I136" s="86"/>
-      <c r="J136" s="82" t="s">
+      <c r="D137" s="175"/>
+      <c r="E137" s="175"/>
+      <c r="F137" s="175"/>
+      <c r="G137" s="175"/>
+      <c r="H137" s="175"/>
+      <c r="I137" s="175"/>
+      <c r="J137" s="82" t="s">
         <v>468</v>
       </c>
-      <c r="K136" s="76" t="s">
+      <c r="K137" s="76" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A137" s="88"/>
-      <c r="B137" s="88"/>
-      <c r="C137" s="86" t="s">
+    <row r="138" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A138" s="167"/>
+      <c r="B138" s="167"/>
+      <c r="C138" s="175" t="s">
         <v>497</v>
       </c>
-      <c r="D137" s="86"/>
-      <c r="E137" s="86"/>
-      <c r="F137" s="86"/>
-      <c r="G137" s="86"/>
-      <c r="H137" s="86"/>
-      <c r="I137" s="86"/>
-      <c r="J137" s="82" t="s">
+      <c r="D138" s="175"/>
+      <c r="E138" s="175"/>
+      <c r="F138" s="175"/>
+      <c r="G138" s="175"/>
+      <c r="H138" s="175"/>
+      <c r="I138" s="175"/>
+      <c r="J138" s="82" t="s">
         <v>469</v>
       </c>
-      <c r="K137" s="76" t="s">
+      <c r="K138" s="76" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A138" s="88"/>
-      <c r="B138" s="88"/>
-      <c r="C138" s="86" t="s">
+    <row r="139" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A139" s="167"/>
+      <c r="B139" s="167"/>
+      <c r="C139" s="175" t="s">
         <v>498</v>
       </c>
-      <c r="D138" s="86"/>
-      <c r="E138" s="86"/>
-      <c r="F138" s="86"/>
-      <c r="G138" s="86"/>
-      <c r="H138" s="86"/>
-      <c r="I138" s="86"/>
-      <c r="J138" s="82" t="s">
+      <c r="D139" s="175"/>
+      <c r="E139" s="175"/>
+      <c r="F139" s="175"/>
+      <c r="G139" s="175"/>
+      <c r="H139" s="175"/>
+      <c r="I139" s="175"/>
+      <c r="J139" s="82" t="s">
         <v>470</v>
       </c>
-      <c r="K138" s="76" t="s">
+      <c r="K139" s="76" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A139" s="89"/>
-      <c r="B139" s="89"/>
-      <c r="C139" s="86" t="s">
+    <row r="140" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A140" s="168"/>
+      <c r="B140" s="168"/>
+      <c r="C140" s="175" t="s">
         <v>499</v>
       </c>
-      <c r="D139" s="86"/>
-      <c r="E139" s="86"/>
-      <c r="F139" s="86"/>
-      <c r="G139" s="86"/>
-      <c r="H139" s="86"/>
-      <c r="I139" s="86"/>
-      <c r="J139" s="82" t="s">
+      <c r="D140" s="175"/>
+      <c r="E140" s="175"/>
+      <c r="F140" s="175"/>
+      <c r="G140" s="175"/>
+      <c r="H140" s="175"/>
+      <c r="I140" s="175"/>
+      <c r="J140" s="82" t="s">
         <v>471</v>
       </c>
-      <c r="K139" s="76" t="s">
+      <c r="K140" s="76" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B141" s="10" t="s">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C141" s="80" t="s">
+      <c r="C142" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D142" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E141" s="131" t="s">
+      <c r="E142" s="142" t="s">
         <v>404</v>
       </c>
-      <c r="F141" s="131"/>
-      <c r="G141" s="11" t="s">
+      <c r="F142" s="142"/>
+      <c r="G142" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H141" s="132" t="s">
+      <c r="H142" s="143" t="s">
         <v>403</v>
       </c>
-      <c r="I141" s="132"/>
-      <c r="J141" s="8" t="s">
+      <c r="I142" s="143"/>
+      <c r="J142" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K141" s="32" t="s">
+      <c r="K142" s="32" t="s">
         <v>402</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="256">
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
+  <mergeCells count="257">
+    <mergeCell ref="A111:A125"/>
+    <mergeCell ref="C111:I111"/>
+    <mergeCell ref="A133:A140"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="B126:B132"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="C133:I133"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C135:I135"/>
+    <mergeCell ref="C136:I136"/>
+    <mergeCell ref="C137:I137"/>
+    <mergeCell ref="C138:I138"/>
+    <mergeCell ref="C139:I139"/>
+    <mergeCell ref="C140:I140"/>
+    <mergeCell ref="B133:B140"/>
+    <mergeCell ref="B112:B125"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="A101:A110"/>
+    <mergeCell ref="A58:A100"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A18:A57"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="D106:I106"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:I108"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="K60:K67"/>
+    <mergeCell ref="K76:K83"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="B58:B70"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B71:B88"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="B89:B100"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="D104:I104"/>
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="J49:J50"/>
     <mergeCell ref="D49:E49"/>
@@ -6863,232 +7134,18 @@
     <mergeCell ref="J87:J88"/>
     <mergeCell ref="K87:K88"/>
     <mergeCell ref="K56:K57"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="B71:B88"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="B89:B100"/>
-    <mergeCell ref="C76:C83"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="B58:B70"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="K60:K67"/>
-    <mergeCell ref="K76:K83"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D101:I101"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="D106:I106"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A101:A110"/>
-    <mergeCell ref="A58:A100"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A18:A57"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B111:B124"/>
-    <mergeCell ref="A111:A124"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
     <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="A132:A139"/>
-    <mergeCell ref="A125:A131"/>
-    <mergeCell ref="B125:B131"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="C127:G127"/>
-    <mergeCell ref="C128:G128"/>
-    <mergeCell ref="C129:G129"/>
-    <mergeCell ref="C130:G130"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="C132:I132"/>
-    <mergeCell ref="C133:I133"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C135:I135"/>
-    <mergeCell ref="C136:I136"/>
-    <mergeCell ref="C137:I137"/>
-    <mergeCell ref="C138:I138"/>
-    <mergeCell ref="C139:I139"/>
-    <mergeCell ref="B132:B139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J58 J53:J56 J13:J25 J74 J27:J35 J40:J50 J76:J110 J60:J68 J70:J72 I111:J124">
+  <conditionalFormatting sqref="J58 J53:J56 J13:J25 J74 J27:J35 J40:J50 J76:J111 J60:J68 J70:J72 I112:J125">
     <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
@@ -7120,7 +7177,7 @@
       <formula>"合格"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J125:J131">
+  <conditionalFormatting sqref="J126:J132">
     <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
@@ -7128,7 +7185,7 @@
       <formula>"合格"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I125:I131">
+  <conditionalFormatting sqref="I126:I132">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
@@ -7136,7 +7193,7 @@
       <formula>"合格"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J132:J139">
+  <conditionalFormatting sqref="J133:J140">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
